--- a/_docs/compress.xlsx
+++ b/_docs/compress.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>10M JPG图片，压缩目标1600*1600</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>图片质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>图片质量(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,6 +46,22 @@
   </si>
   <si>
     <t>Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片质量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,8 +121,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -113,18 +149,505 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Flash</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>100.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>90.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>80.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>70.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>60.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>50.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4768.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3555.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3295.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3205.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3243.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3137.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HTML5</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>100.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>90.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>80.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>70.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>60.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>50.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>543.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>472.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>428.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="701190808"/>
+        <c:axId val="685381656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="701190808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="685381656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685381656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="701190808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Flash</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>100.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>90.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>80.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>70.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>60.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>50.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$J$14:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2945.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>895.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>608.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>483.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>356.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HTML5</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>100.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>90.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>80.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>70.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>60.0</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>50.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$J$15:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2449.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>741.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>296.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="707326776"/>
+        <c:axId val="918101624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="707326776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="918101624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918101624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="707326776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -460,19 +983,19 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -493,7 +1016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -516,7 +1039,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -539,14 +1062,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -567,7 +1090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -590,7 +1113,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -611,12 +1134,153 @@
       </c>
       <c r="G10">
         <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>70</v>
+      </c>
+      <c r="N13">
+        <v>60</v>
+      </c>
+      <c r="O13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>4768</v>
+      </c>
+      <c r="C14">
+        <v>3555</v>
+      </c>
+      <c r="D14">
+        <v>3295</v>
+      </c>
+      <c r="E14">
+        <v>3205</v>
+      </c>
+      <c r="F14">
+        <v>3243</v>
+      </c>
+      <c r="G14">
+        <v>3137</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>2945</v>
+      </c>
+      <c r="K14">
+        <v>895</v>
+      </c>
+      <c r="L14">
+        <v>608</v>
+      </c>
+      <c r="M14">
+        <v>483</v>
+      </c>
+      <c r="N14">
+        <v>407</v>
+      </c>
+      <c r="O14">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>543</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <v>495</v>
+      </c>
+      <c r="E15">
+        <v>481</v>
+      </c>
+      <c r="F15">
+        <v>472</v>
+      </c>
+      <c r="G15">
+        <v>428</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>2449</v>
+      </c>
+      <c r="K15">
+        <v>741</v>
+      </c>
+      <c r="L15">
+        <v>512</v>
+      </c>
+      <c r="M15">
+        <v>406</v>
+      </c>
+      <c r="N15">
+        <v>340</v>
+      </c>
+      <c r="O15">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
